--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N2">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O2">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P2">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q2">
-        <v>6543.254542084323</v>
+        <v>7189.7462293491</v>
       </c>
       <c r="R2">
-        <v>58889.2908787589</v>
+        <v>64707.7160641419</v>
       </c>
       <c r="S2">
-        <v>0.01039567594789688</v>
+        <v>0.04250398760499637</v>
       </c>
       <c r="T2">
-        <v>0.01039567594789688</v>
+        <v>0.04250398760499637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.786578</v>
       </c>
       <c r="O3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q3">
-        <v>29.06459681757778</v>
+        <v>38.48140215279</v>
       </c>
       <c r="R3">
-        <v>261.5813713582</v>
+        <v>346.33261937511</v>
       </c>
       <c r="S3">
-        <v>4.61767348539625E-05</v>
+        <v>0.0002274924577238022</v>
       </c>
       <c r="T3">
-        <v>4.61767348539625E-05</v>
+        <v>0.0002274924577238022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N4">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q4">
-        <v>3882.930497107689</v>
+        <v>2263.77480347325</v>
       </c>
       <c r="R4">
-        <v>34946.3744739692</v>
+        <v>20373.97323125925</v>
       </c>
       <c r="S4">
-        <v>0.006169053475837942</v>
+        <v>0.01338287237379184</v>
       </c>
       <c r="T4">
-        <v>0.006169053475837941</v>
+        <v>0.01338287237379184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N5">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O5">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P5">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q5">
-        <v>31.14717620971111</v>
+        <v>44.28774002898</v>
       </c>
       <c r="R5">
-        <v>280.3245858874</v>
+        <v>398.58966026082</v>
       </c>
       <c r="S5">
-        <v>4.948545841914569E-05</v>
+        <v>0.0002618180799707425</v>
       </c>
       <c r="T5">
-        <v>4.948545841914567E-05</v>
+        <v>0.0002618180799707426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N6">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q6">
-        <v>2270.655144032155</v>
+        <v>2252.328077143305</v>
       </c>
       <c r="R6">
-        <v>20435.8962962894</v>
+        <v>20270.95269428974</v>
       </c>
       <c r="S6">
-        <v>0.003607531223944126</v>
+        <v>0.01331520218091915</v>
       </c>
       <c r="T6">
-        <v>0.003607531223944124</v>
+        <v>0.01331520218091915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N7">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O7">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P7">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q7">
-        <v>35597.64753281268</v>
+        <v>29542.99083403646</v>
       </c>
       <c r="R7">
-        <v>320378.8277953141</v>
+        <v>265886.9175063281</v>
       </c>
       <c r="S7">
-        <v>0.05655619934673827</v>
+        <v>0.1746507979792893</v>
       </c>
       <c r="T7">
-        <v>0.05655619934673826</v>
+        <v>0.1746507979792894</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.786578</v>
       </c>
       <c r="O8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q8">
         <v>158.121813317974</v>
@@ -948,10 +948,10 @@
         <v>1423.096319861766</v>
       </c>
       <c r="S8">
-        <v>0.0002512179712672288</v>
+        <v>0.0009347767471836294</v>
       </c>
       <c r="T8">
-        <v>0.0002512179712672288</v>
+        <v>0.0009347767471836295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N9">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q9">
-        <v>21124.53219440524</v>
+        <v>9301.952549636451</v>
       </c>
       <c r="R9">
-        <v>190120.7897496472</v>
+        <v>83717.57294672805</v>
       </c>
       <c r="S9">
-        <v>0.03356185974907806</v>
+        <v>0.05499082488587439</v>
       </c>
       <c r="T9">
-        <v>0.03356185974907806</v>
+        <v>0.0549908248858744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N10">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O10">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P10">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q10">
-        <v>169.451790882418</v>
+        <v>181.980316967988</v>
       </c>
       <c r="R10">
-        <v>1525.066117941763</v>
+        <v>1637.822852711892</v>
       </c>
       <c r="S10">
-        <v>0.0002692186121561561</v>
+        <v>0.001075822273835794</v>
       </c>
       <c r="T10">
-        <v>0.000269218612156156</v>
+        <v>0.001075822273835794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N11">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q11">
-        <v>12353.17699562956</v>
+        <v>9254.917435981833</v>
       </c>
       <c r="R11">
-        <v>111178.592960666</v>
+        <v>83294.2569238365</v>
       </c>
       <c r="S11">
-        <v>0.0196262615411981</v>
+        <v>0.05471276501783418</v>
       </c>
       <c r="T11">
-        <v>0.01962626154119809</v>
+        <v>0.05471276501783419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N12">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O12">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P12">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q12">
-        <v>126298.8834765833</v>
+        <v>42445.02138990777</v>
       </c>
       <c r="R12">
-        <v>1136689.95128925</v>
+        <v>382005.19250917</v>
       </c>
       <c r="S12">
-        <v>0.2006589009733848</v>
+        <v>0.2509243866892048</v>
       </c>
       <c r="T12">
-        <v>0.2006589009733848</v>
+        <v>0.2509243866892049</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.786578</v>
       </c>
       <c r="O13">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P13">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q13">
-        <v>561.0092199756922</v>
+        <v>227.1768551192222</v>
       </c>
       <c r="R13">
-        <v>5049.08297978123</v>
+        <v>2044.591696073</v>
       </c>
       <c r="S13">
-        <v>0.0008913102825420446</v>
+        <v>0.001343012941779955</v>
       </c>
       <c r="T13">
-        <v>0.0008913102825420446</v>
+        <v>0.001343012941779956</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N14">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O14">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P14">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q14">
-        <v>74948.90856647893</v>
+        <v>13364.30617858611</v>
       </c>
       <c r="R14">
-        <v>674540.1770983103</v>
+        <v>120278.755607275</v>
       </c>
       <c r="S14">
-        <v>0.1190759982046296</v>
+        <v>0.07900644696543424</v>
       </c>
       <c r="T14">
-        <v>0.1190759982046296</v>
+        <v>0.07900644696543425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N15">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O15">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P15">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q15">
-        <v>601.2074806861789</v>
+        <v>261.4548570806667</v>
       </c>
       <c r="R15">
-        <v>5410.86732617561</v>
+        <v>2353.093713726</v>
       </c>
       <c r="S15">
-        <v>0.0009551757625302616</v>
+        <v>0.00154565594530432</v>
       </c>
       <c r="T15">
-        <v>0.0009551757625302614</v>
+        <v>0.00154565594530432</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N16">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O16">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P16">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q16">
-        <v>43828.52716597344</v>
+        <v>13296.7298652615</v>
       </c>
       <c r="R16">
-        <v>394456.7444937609</v>
+        <v>119670.5687873535</v>
       </c>
       <c r="S16">
-        <v>0.06963311036741622</v>
+        <v>0.07860695264500665</v>
       </c>
       <c r="T16">
-        <v>0.06963311036741622</v>
+        <v>0.07860695264500667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N17">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O17">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P17">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q17">
-        <v>9088.811133085397</v>
+        <v>4195.151146419381</v>
       </c>
       <c r="R17">
-        <v>81799.30019776858</v>
+        <v>37756.36031777443</v>
       </c>
       <c r="S17">
-        <v>0.01443996021910768</v>
+        <v>0.02480068790197598</v>
       </c>
       <c r="T17">
-        <v>0.01443996021910768</v>
+        <v>0.02480068790197598</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.786578</v>
       </c>
       <c r="O18">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P18">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q18">
-        <v>40.37174917087844</v>
+        <v>22.453546092922</v>
       </c>
       <c r="R18">
-        <v>363.3457425379059</v>
+        <v>202.081914836298</v>
       </c>
       <c r="S18">
-        <v>6.414111190859099E-05</v>
+        <v>0.0001327397677717718</v>
       </c>
       <c r="T18">
-        <v>6.414111190859099E-05</v>
+        <v>0.0001327397677717718</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N19">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O19">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P19">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q19">
-        <v>5393.527288924225</v>
+        <v>1320.89188673435</v>
       </c>
       <c r="R19">
-        <v>48541.74560031803</v>
+        <v>11888.02698060915</v>
       </c>
       <c r="S19">
-        <v>0.008569032665804626</v>
+        <v>0.007808783591292322</v>
       </c>
       <c r="T19">
-        <v>0.008569032665804626</v>
+        <v>0.007808783591292322</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N20">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O20">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P20">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q20">
-        <v>43.26452533341577</v>
+        <v>25.841491121964</v>
       </c>
       <c r="R20">
-        <v>389.380728000742</v>
+        <v>232.5734200976761</v>
       </c>
       <c r="S20">
-        <v>6.873704553491137E-05</v>
+        <v>0.0001527684543105242</v>
       </c>
       <c r="T20">
-        <v>6.873704553491136E-05</v>
+        <v>0.0001527684543105242</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N21">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O21">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P21">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q21">
-        <v>3154.020009422266</v>
+        <v>1314.212826645999</v>
       </c>
       <c r="R21">
-        <v>28386.1800848004</v>
+        <v>11827.91543981399</v>
       </c>
       <c r="S21">
-        <v>0.005010987993857264</v>
+        <v>0.007769298652860218</v>
       </c>
       <c r="T21">
-        <v>0.005010987993857264</v>
+        <v>0.007769298652860218</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N22">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O22">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P22">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q22">
-        <v>145309.3474615135</v>
+        <v>19792.60359180941</v>
       </c>
       <c r="R22">
-        <v>1307784.127153621</v>
+        <v>178133.4323262846</v>
       </c>
       <c r="S22">
-        <v>0.2308620089123196</v>
+        <v>0.1170089389668256</v>
       </c>
       <c r="T22">
-        <v>0.2308620089123196</v>
+        <v>0.1170089389668256</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.786578</v>
       </c>
       <c r="O23">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P23">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q23">
-        <v>645.4521325176627</v>
+        <v>105.9351907801796</v>
       </c>
       <c r="R23">
-        <v>5809.069192658964</v>
+        <v>953.416717021616</v>
       </c>
       <c r="S23">
-        <v>0.001025469996066393</v>
+        <v>0.0006262624426816956</v>
       </c>
       <c r="T23">
-        <v>0.001025469996066393</v>
+        <v>0.0006262624426816956</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N24">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O24">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P24">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q24">
-        <v>86230.19219933891</v>
+        <v>6231.930290302978</v>
       </c>
       <c r="R24">
-        <v>776071.7297940502</v>
+        <v>56087.37261272681</v>
       </c>
       <c r="S24">
-        <v>0.1369992760122155</v>
+        <v>0.03684161851679423</v>
       </c>
       <c r="T24">
-        <v>0.1369992760122155</v>
+        <v>0.03684161851679423</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N25">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O25">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P25">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q25">
-        <v>691.7010214400387</v>
+        <v>121.9194189069547</v>
       </c>
       <c r="R25">
-        <v>6225.309192960349</v>
+        <v>1097.274770162592</v>
       </c>
       <c r="S25">
-        <v>0.00109894848587525</v>
+        <v>0.0007207572151678993</v>
       </c>
       <c r="T25">
-        <v>0.00109894848587525</v>
+        <v>0.0007207572151678994</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N26">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O26">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P26">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q26">
-        <v>50425.58182129626</v>
+        <v>6200.418675088009</v>
       </c>
       <c r="R26">
-        <v>453830.2363916664</v>
+        <v>55803.76807579208</v>
       </c>
       <c r="S26">
-        <v>0.08011426190541748</v>
+        <v>0.03665532970217054</v>
       </c>
       <c r="T26">
-        <v>0.08011426190541747</v>
+        <v>0.03665532970217054</v>
       </c>
     </row>
   </sheetData>
